--- a/RawData/EffectsOfCombinedPretreatmentOfDiluteAcidPre-extractionAndChemical-assistedMechanical.xlsx
+++ b/RawData/EffectsOfCombinedPretreatmentOfDiluteAcidPre-extractionAndChemical-assistedMechanical.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC98394-4A73-49C3-A527-50B743F68AD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CABF05E-85AD-44E6-93CB-D8E96CB94082}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
   <si>
     <t>mol proton/L</t>
   </si>
@@ -310,6 +310,13 @@
   <si>
     <t>mono</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acid Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sulfuric acid</t>
   </si>
 </sst>
 </file>
@@ -2213,29 +2220,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBFDDB0-64D9-428A-B667-8EAE0E841A52}">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="24" max="24" width="22" customWidth="1"/>
+    <col min="25" max="25" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -2246,73 +2253,76 @@
         <v>32</v>
       </c>
       <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>41</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>43</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>44</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>46</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>41</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>42</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>43</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>44</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>45</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>47</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>50</v>
       </c>
@@ -2322,35 +2332,38 @@
       <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3">
         <v>0.20261576958534683</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>150</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>30</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>20</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>16.81818181818182</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.17</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>55</v>
       </c>
@@ -2360,35 +2373,38 @@
       <c r="C4">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4">
         <v>0.20261576958534683</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>150</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>20</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>35</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>16.81818181818182</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1.98</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>75</v>
       </c>
@@ -2398,35 +2414,38 @@
       <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5">
         <v>0.20261576958534683</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>150</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>40</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>35</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>16.81818181818182</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>95</v>
       </c>
@@ -2436,35 +2455,38 @@
       <c r="C6">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6">
         <v>0.20261576958534683</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>150</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>60</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>35</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>16.81818181818182</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>5.95</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>115</v>
       </c>
@@ -2474,31 +2496,34 @@
       <c r="C7">
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7">
         <v>0.20261576958534683</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>150</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>80</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>35</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>16.81818181818182</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>6.92</v>
       </c>
     </row>
